--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d8546215b3d1077/Documents/Git repository/Excel-Tutorial-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C983A7-B560-4CC8-A9A6-39CA91B053F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -41,6 +41,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,8 +374,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,17 +695,17 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -718,7 +740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -746,10 +768,16 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <f>MAX(G2:G10)</f>
+        <v>65000</v>
+      </c>
+      <c r="K2" s="3">
+        <f>MIN(G2:G10)</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -777,10 +805,8 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -809,7 +835,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -838,7 +864,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -867,7 +893,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -896,7 +922,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -925,7 +951,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -954,7 +980,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -996,20 +1022,20 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1069,8 +1095,12 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(B2, " ",C2)</f>
+        <v>Jim Halpert</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1098,8 +1128,12 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.CONCAT(B3, " ",C3)</f>
+        <v>Pam Beasley</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1127,8 +1161,12 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight Schrute</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1156,8 +1194,12 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Martin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1185,8 +1227,12 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toby Flenderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1214,8 +1260,12 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Scott</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1243,8 +1293,12 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith Palmer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1272,8 +1326,12 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley Hudson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1301,16 +1359,20 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin Malone</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="str">
-        <f t="shared" ref="H3:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H11:H12" si="1">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1324,19 +1386,23 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1421,7 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -1371,7 +1437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1390,17 +1456,33 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>_xlfn.DAYS(N2,M2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(M2,N2)</f>
+        <v>3611</v>
+      </c>
+      <c r="M2" t="str">
+        <f>MID(H2,FIND("/",H2)+1,FIND("/",H2,FIND("/",H2)+1)-FIND("/",H2)-1) &amp; "/" &amp; LEFT(H2,FIND("/",H2)-1) &amp; "/" &amp; RIGHT(H2,LEN(H2)-FIND("/",H2,FIND("/",H2)+1))</f>
+        <v>2/11/2001</v>
+      </c>
+      <c r="N2" t="str">
+        <f>MID(I2,FIND("/",I2)+1,FIND("/",I2,FIND("/",I2)+1)-FIND("/",I2)-1) &amp; "/" &amp; LEFT(I2,FIND("/",I2)-1) &amp; "/" &amp; RIGHT(I2,LEN(I2)-FIND("/",I2,FIND("/",I2)+1))</f>
+        <v>6/9/2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1419,17 +1501,33 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(N3,M3)</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(M3,N3)</f>
+        <v>4180</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M10" si="2">MID(H3,FIND("/",H3)+1,FIND("/",H3,FIND("/",H3)+1)-FIND("/",H3)-1) &amp; "/" &amp; LEFT(H3,FIND("/",H3)-1) &amp; "/" &amp; RIGHT(H3,LEN(H3)-FIND("/",H3,FIND("/",H3)+1))</f>
+        <v>3/10/1999</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N10" si="3">MID(I3,FIND("/",I3)+1,FIND("/",I3,FIND("/",I3)+1)-FIND("/",I3)-1) &amp; "/" &amp; LEFT(I3,FIND("/",I3)-1) &amp; "/" &amp; RIGHT(I3,LEN(I3)-FIND("/",I3,FIND("/",I3)+1))</f>
+        <v>10/10/2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1448,17 +1546,33 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4484</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>4/7/2000</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v>8/9/2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1477,17 +1591,33 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4152</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>5/1/2000</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>3/12/2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1506,17 +1636,33 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4258</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>6/5/2001</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>30/8/2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1535,17 +1681,33 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3223</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>6/5/2001</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>11/9/2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1564,17 +1726,33 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>8/11/2003</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>11/9/2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1593,17 +1771,33 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3358</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>9/6/2002</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>22/4/2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1622,17 +1816,34 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3053</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>10/8/2003</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>22/4/2015</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1645,17 +1856,17 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1718,8 +1929,16 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">IF(D2:D10 &gt;= 35, "Old", "Young")</f>
+        <v>Young</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">_xlfn.IFS(G2:G10 &gt;= 60000, "High Salary", G2:G10 &gt;= 40000, "Mid Salary", TRUE, "Low Salary")</f>
+        <v>Mid Salary</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1747,8 +1966,14 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Low Salary</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1776,8 +2001,14 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K4" t="str">
+        <v>High Salary</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1805,8 +2036,14 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Mid Salary</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1834,8 +2071,14 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Mid Salary</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1863,8 +2106,14 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>Old</v>
+      </c>
+      <c r="K7" t="str">
+        <v>High Salary</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1892,8 +2141,14 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Mid Salary</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1921,8 +2176,14 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>Old</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Mid Salary</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1949,6 +2210,12 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Young</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Mid Salary</v>
       </c>
     </row>
   </sheetData>
@@ -1964,15 +2231,15 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2035,8 +2302,12 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" cm="1">
+        <f t="array" ref="J2:J10">LEN(B2:B10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2064,8 +2335,11 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2093,8 +2367,11 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2122,8 +2399,11 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2151,8 +2431,11 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2180,8 +2463,11 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2209,8 +2495,11 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2238,8 +2527,11 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2266,6 +2558,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2281,16 +2576,16 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2331,7 +2626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2353,17 +2648,29 @@
       <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">LEFT(E2:E10, 1)</f>
+        <v>M</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">RIGHT(H2:H10, 4)</f>
+        <v>2001</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">RIGHT(I2:I10,4)</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2385,17 +2692,26 @@
       <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" t="str">
+        <v>F</v>
+      </c>
+      <c r="L3" t="str">
+        <v>1999</v>
+      </c>
+      <c r="M3" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2417,17 +2733,26 @@
       <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" t="str">
+        <v>M</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2449,17 +2774,26 @@
       <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" t="str">
+        <v>F</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2481,17 +2815,26 @@
       <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" t="str">
+        <v>M</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2001</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2513,17 +2856,26 @@
       <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" t="str">
+        <v>M</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2001</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2545,17 +2897,26 @@
       <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" t="str">
+        <v>F</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2003</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2577,17 +2938,26 @@
       <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" t="str">
+        <v>M</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2002</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2609,14 +2979,23 @@
       <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="K10" t="str">
+        <v>M</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2003</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -2632,16 +3011,17 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +3053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2701,9 +3081,13 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TEXT(H2:H10,"dd/mm/yyyy")</f>
+        <v>02/11/2001</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2731,9 +3115,12 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <v>03/10/1999</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2761,9 +3148,12 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <v>04/07/2000</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2791,9 +3181,12 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <v>05/01/2000</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2821,9 +3214,12 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>06/05/2001</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2851,9 +3247,12 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>07/12/1995</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2881,9 +3280,12 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>08/11/2003</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2911,9 +3313,12 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>09/06/2002</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2941,13 +3346,16 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <v>10/08/2003</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,16 +3370,17 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3006,14 +3415,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
@@ -3034,15 +3443,19 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3">
@@ -3063,15 +3476,18 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <v>Beasley</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4">
@@ -3092,15 +3508,18 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <v>Schrute</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5">
@@ -3121,15 +3540,18 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <v>Martin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D6">
@@ -3150,15 +3572,18 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>Flenderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D7">
@@ -3179,15 +3604,18 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>Scott</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8">
@@ -3208,15 +3636,18 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>Palmer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9">
@@ -3237,15 +3668,18 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>Hudson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D10">
@@ -3265,6 +3699,9 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3280,17 +3717,20 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3309,7 +3749,7 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -3328,7 +3768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3347,17 +3787,29 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">SUBSTITUTE(H2:H10,"/","-",1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">SUBSTITUTE(I2:I10,"/","-",2)</f>
+        <v>9/6-2015</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">SUBSTITUTE(J2:J10,"/","-")</f>
+        <v>11-2-2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3376,17 +3828,26 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <v>10/10-2015</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10-3-1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3405,17 +3866,26 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <v>9/8-2017</v>
+      </c>
+      <c r="L4" t="str">
+        <v>7-4-2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3434,17 +3904,26 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>12/3-2015</v>
+      </c>
+      <c r="L5" t="str">
+        <v>1-5-2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3463,17 +3942,26 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <v>8/30-2017</v>
+      </c>
+      <c r="L6" t="str">
+        <v>5-6-2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3492,17 +3980,26 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <v>9/11-2013</v>
+      </c>
+      <c r="L7" t="str">
+        <v>5-6-2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3521,17 +4018,26 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <v>9/11-2013</v>
+      </c>
+      <c r="L8" t="str">
+        <v>11-8-2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3550,17 +4056,26 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <v>4/22-2015</v>
+      </c>
+      <c r="L9" t="str">
+        <v>6-9-2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3579,51 +4094,60 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="J10" t="str">
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <v>4/22-2015</v>
+      </c>
+      <c r="L10" t="str">
+        <v>8-10-2003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3639,12 +4163,12 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +4206,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3710,8 +4234,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10,G2:G10,"&gt;50000",D2:D10,"&gt;30")</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3740,7 +4276,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3769,7 +4305,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3798,7 +4334,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3827,7 +4363,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3856,7 +4392,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3885,7 +4421,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3914,7 +4450,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3956,16 +4492,16 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4003,7 +4539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4031,8 +4567,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>COUNT(D2:D10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(D2:D10, "&gt;30")</f>
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(D2:D10, "&gt;30",E2:E10,"=Male")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4061,7 +4609,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4090,7 +4638,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4119,7 +4667,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4148,7 +4696,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4177,7 +4725,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4206,7 +4754,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4235,7 +4783,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>

--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d8546215b3d1077/Documents/Git repository/Excel-Tutorial-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C983A7-B560-4CC8-A9A6-39CA91B053F5}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA07024-F664-44CE-9D4C-87F3FFB23E58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1397,9 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="13" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
